--- a/data/pca/factorExposure/factorExposure_2013-01-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-24.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008320967483366342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001809830901037941</v>
+      </c>
+      <c r="C2">
+        <v>-0.03263456864129272</v>
+      </c>
+      <c r="D2">
+        <v>0.006011243553826958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003841135409102796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00634274337506794</v>
+      </c>
+      <c r="C4">
+        <v>-0.08468305492406403</v>
+      </c>
+      <c r="D4">
+        <v>0.08009846921004923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001869826913933177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01419744511189246</v>
+      </c>
+      <c r="C6">
+        <v>-0.113343450379125</v>
+      </c>
+      <c r="D6">
+        <v>0.03414145911282804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002100370680804928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005089403747134501</v>
+      </c>
+      <c r="C7">
+        <v>-0.05743329953955961</v>
+      </c>
+      <c r="D7">
+        <v>0.03561546908587371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008286895307548524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.00581184956014822</v>
+      </c>
+      <c r="C8">
+        <v>-0.03835769858076246</v>
+      </c>
+      <c r="D8">
+        <v>0.0459262619517538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003471340006272696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004475175285966511</v>
+      </c>
+      <c r="C9">
+        <v>-0.07075140315109035</v>
+      </c>
+      <c r="D9">
+        <v>0.07080291934876887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002201129859969806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005385152350014381</v>
+      </c>
+      <c r="C10">
+        <v>-0.05733129243661062</v>
+      </c>
+      <c r="D10">
+        <v>-0.1974048419581668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002685228661291607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005775901739739115</v>
+      </c>
+      <c r="C11">
+        <v>-0.08052628387063679</v>
+      </c>
+      <c r="D11">
+        <v>0.05998149781047497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004877707527513728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004082354399017754</v>
+      </c>
+      <c r="C12">
+        <v>-0.06425471113007408</v>
+      </c>
+      <c r="D12">
+        <v>0.04758154973845293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002175830720474337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008783031903266745</v>
+      </c>
+      <c r="C13">
+        <v>-0.06635282137265591</v>
+      </c>
+      <c r="D13">
+        <v>0.06237269977585915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009512679100885801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001585138712923545</v>
+      </c>
+      <c r="C14">
+        <v>-0.04537475701388816</v>
+      </c>
+      <c r="D14">
+        <v>0.007599822332599848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007240743789314319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006056773312011203</v>
+      </c>
+      <c r="C15">
+        <v>-0.04263053973126568</v>
+      </c>
+      <c r="D15">
+        <v>0.02799738848316944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009679470851023085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005087291264654722</v>
+      </c>
+      <c r="C16">
+        <v>-0.06567203035310809</v>
+      </c>
+      <c r="D16">
+        <v>0.04681917654426637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>5.203807431429657e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008918514608809479</v>
+      </c>
+      <c r="C20">
+        <v>-0.06535156299861837</v>
+      </c>
+      <c r="D20">
+        <v>0.04278299289228045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005743246511487989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009991486149803474</v>
+      </c>
+      <c r="C21">
+        <v>-0.02134463948948046</v>
+      </c>
+      <c r="D21">
+        <v>0.03807629795459201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01677509465103434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006749303136435663</v>
+      </c>
+      <c r="C22">
+        <v>-0.09447875967675834</v>
+      </c>
+      <c r="D22">
+        <v>0.1083449879994242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01707595743584856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006567457551383396</v>
+      </c>
+      <c r="C23">
+        <v>-0.09526808713960173</v>
+      </c>
+      <c r="D23">
+        <v>0.1084391636405145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001353230614183375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005468770981748925</v>
+      </c>
+      <c r="C24">
+        <v>-0.07647575874822857</v>
+      </c>
+      <c r="D24">
+        <v>0.06103508979715009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003931896312339786</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003033117980534787</v>
+      </c>
+      <c r="C25">
+        <v>-0.07862518686532342</v>
+      </c>
+      <c r="D25">
+        <v>0.06611792409908097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004860620787899671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003680029671001285</v>
+      </c>
+      <c r="C26">
+        <v>-0.04179181569892868</v>
+      </c>
+      <c r="D26">
+        <v>0.02065570805453642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005887702955682123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.000969886367129238</v>
+      </c>
+      <c r="C28">
+        <v>-0.1064671922146637</v>
+      </c>
+      <c r="D28">
+        <v>-0.3157938441681076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001024348455225751</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003181524907785803</v>
+      </c>
+      <c r="C29">
+        <v>-0.04910280479911476</v>
+      </c>
+      <c r="D29">
+        <v>0.005871246137683694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003387371462839879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009544688954406546</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427874662004048</v>
+      </c>
+      <c r="D30">
+        <v>0.09218912736944439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00110429142537578</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006253153674440327</v>
+      </c>
+      <c r="C31">
+        <v>-0.04455821700086842</v>
+      </c>
+      <c r="D31">
+        <v>0.03075593404235406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006227764683844817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004174909012187046</v>
+      </c>
+      <c r="C32">
+        <v>-0.04178249876235023</v>
+      </c>
+      <c r="D32">
+        <v>0.01861740886623735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00270200990698078</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008376221608754621</v>
+      </c>
+      <c r="C33">
+        <v>-0.08599747694386665</v>
+      </c>
+      <c r="D33">
+        <v>0.06749497446375527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004327907971671641</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003983954364161066</v>
+      </c>
+      <c r="C34">
+        <v>-0.05797897826476258</v>
+      </c>
+      <c r="D34">
+        <v>0.05366080558736723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001561380037191989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004934539081216053</v>
+      </c>
+      <c r="C35">
+        <v>-0.04025150614505495</v>
+      </c>
+      <c r="D35">
+        <v>0.01706077860530807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003641998298458822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001113601247729085</v>
+      </c>
+      <c r="C36">
+        <v>-0.02443629944604101</v>
+      </c>
+      <c r="D36">
+        <v>0.02213356029713986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002305410904617824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009526178065425094</v>
+      </c>
+      <c r="C38">
+        <v>-0.03550435915577327</v>
+      </c>
+      <c r="D38">
+        <v>0.01532250333076977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01197917207560533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0005204372773332289</v>
+      </c>
+      <c r="C39">
+        <v>-0.116270907690834</v>
+      </c>
+      <c r="D39">
+        <v>0.070865273949689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.0102351854434875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002665102829582587</v>
+      </c>
+      <c r="C40">
+        <v>-0.08852677061156344</v>
+      </c>
+      <c r="D40">
+        <v>0.01691304398573787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001657446254376998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007241667098972514</v>
+      </c>
+      <c r="C41">
+        <v>-0.03810674819601942</v>
+      </c>
+      <c r="D41">
+        <v>0.03364539133057303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002815785027733017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004031487174704458</v>
+      </c>
+      <c r="C43">
+        <v>-0.0534038910241334</v>
+      </c>
+      <c r="D43">
+        <v>0.0231582542276289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004240465316293034</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003461957322346819</v>
+      </c>
+      <c r="C44">
+        <v>-0.1098047847688096</v>
+      </c>
+      <c r="D44">
+        <v>0.06786170281116688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009260240655691391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002213930936030028</v>
+      </c>
+      <c r="C46">
+        <v>-0.03318968841776244</v>
+      </c>
+      <c r="D46">
+        <v>0.03224960147774032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>5.77032139710459e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002704768475846541</v>
+      </c>
+      <c r="C47">
+        <v>-0.0373309613112933</v>
+      </c>
+      <c r="D47">
+        <v>0.0221639522634345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003648231985574727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.00659896547228456</v>
+      </c>
+      <c r="C48">
+        <v>-0.03030551432177595</v>
+      </c>
+      <c r="D48">
+        <v>0.03260682211936356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01215632028647722</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01534867795274783</v>
+      </c>
+      <c r="C49">
+        <v>-0.1840103426599183</v>
+      </c>
+      <c r="D49">
+        <v>0.01122978460293811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00164091838763531</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003619724401713187</v>
+      </c>
+      <c r="C50">
+        <v>-0.04348384286917339</v>
+      </c>
+      <c r="D50">
+        <v>0.03400352698233839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007798012248933224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004492198135265715</v>
+      </c>
+      <c r="C51">
+        <v>-0.02712386533679923</v>
+      </c>
+      <c r="D51">
+        <v>0.01909549504208334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007878021778445038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0208555842930313</v>
+      </c>
+      <c r="C53">
+        <v>-0.1690478688108973</v>
+      </c>
+      <c r="D53">
+        <v>0.02873261459667926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001236289635964626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008708153543237181</v>
+      </c>
+      <c r="C54">
+        <v>-0.0549085046260249</v>
+      </c>
+      <c r="D54">
+        <v>0.04266744494230245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003840927668117998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009453342928302985</v>
+      </c>
+      <c r="C55">
+        <v>-0.1080934154905803</v>
+      </c>
+      <c r="D55">
+        <v>0.03963084448997065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002708369164006702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02008208286556522</v>
+      </c>
+      <c r="C56">
+        <v>-0.1742188449566482</v>
+      </c>
+      <c r="D56">
+        <v>0.02973847174122564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007193820241785815</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01975993424914344</v>
+      </c>
+      <c r="C58">
+        <v>-0.1111012616017198</v>
+      </c>
+      <c r="D58">
+        <v>0.05155667980444406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006952602008702249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0096890344822857</v>
+      </c>
+      <c r="C59">
+        <v>-0.1616615671857675</v>
+      </c>
+      <c r="D59">
+        <v>-0.3156474983716351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004014813492329564</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02389027716271127</v>
+      </c>
+      <c r="C60">
+        <v>-0.221861132935658</v>
+      </c>
+      <c r="D60">
+        <v>0.0325411956792111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01360763804322181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001653452896279111</v>
+      </c>
+      <c r="C61">
+        <v>-0.09576123991277408</v>
+      </c>
+      <c r="D61">
+        <v>0.05755750297022721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1636966551709445</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1448247516653847</v>
+      </c>
+      <c r="C62">
+        <v>-0.09228828117880039</v>
+      </c>
+      <c r="D62">
+        <v>0.04593200189002859</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.000817778061650548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006306069086679645</v>
+      </c>
+      <c r="C63">
+        <v>-0.05535657853302953</v>
+      </c>
+      <c r="D63">
+        <v>0.02485054263115801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0004981646680159792</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01543425858994122</v>
+      </c>
+      <c r="C64">
+        <v>-0.1059371580892791</v>
+      </c>
+      <c r="D64">
+        <v>0.05977015538777547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002817321348149884</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01796861716634462</v>
+      </c>
+      <c r="C65">
+        <v>-0.1229391214584453</v>
+      </c>
+      <c r="D65">
+        <v>0.01898821646875132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007763814869436001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01315542037945428</v>
+      </c>
+      <c r="C66">
+        <v>-0.1601500183527211</v>
+      </c>
+      <c r="D66">
+        <v>0.1126230851293862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003555860578643925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0156993274735176</v>
+      </c>
+      <c r="C67">
+        <v>-0.06630901746486896</v>
+      </c>
+      <c r="D67">
+        <v>0.02534534990061204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006501313517119829</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0005807127733132819</v>
+      </c>
+      <c r="C68">
+        <v>-0.08633569122239548</v>
+      </c>
+      <c r="D68">
+        <v>-0.2568247182518471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002285293028060844</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006211092888843526</v>
+      </c>
+      <c r="C69">
+        <v>-0.0506871037104485</v>
+      </c>
+      <c r="D69">
+        <v>0.03793288304679755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003475400151762478</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001901979286125473</v>
+      </c>
+      <c r="C70">
+        <v>-0.00241022150704235</v>
+      </c>
+      <c r="D70">
+        <v>0.003261305986454986</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004880647928609157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005866435953536134</v>
+      </c>
+      <c r="C71">
+        <v>-0.09622705226639851</v>
+      </c>
+      <c r="D71">
+        <v>-0.307160676343665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003946309804454415</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01605148785322049</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529361484543726</v>
+      </c>
+      <c r="D72">
+        <v>0.02225945591716671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01181093512423751</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03085970004188434</v>
+      </c>
+      <c r="C73">
+        <v>-0.279740582819771</v>
+      </c>
+      <c r="D73">
+        <v>0.05105721185757793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00465538885167216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001976702232735986</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047951940359736</v>
+      </c>
+      <c r="D74">
+        <v>0.035619976547539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002589287278033308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0109936268673219</v>
+      </c>
+      <c r="C75">
+        <v>-0.1254475495524767</v>
+      </c>
+      <c r="D75">
+        <v>0.02346605644083629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00918302923179558</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02177822972748496</v>
+      </c>
+      <c r="C76">
+        <v>-0.1487091864711531</v>
+      </c>
+      <c r="D76">
+        <v>0.06135216615391434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008672395482514596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02389542806426793</v>
+      </c>
+      <c r="C77">
+        <v>-0.1268419993500967</v>
+      </c>
+      <c r="D77">
+        <v>0.09072133590061754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001741038092880101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01479333006857482</v>
+      </c>
+      <c r="C78">
+        <v>-0.09717535215700124</v>
+      </c>
+      <c r="D78">
+        <v>0.06880480509907121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0228448399536971</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03768322639245505</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561054808673551</v>
+      </c>
+      <c r="D79">
+        <v>0.03437845724716068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006561987370988494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01049150550579193</v>
+      </c>
+      <c r="C80">
+        <v>-0.04079169115709232</v>
+      </c>
+      <c r="D80">
+        <v>0.02950781772281988</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001252200279416505</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01535847408725449</v>
+      </c>
+      <c r="C81">
+        <v>-0.1271401227539035</v>
+      </c>
+      <c r="D81">
+        <v>0.03993011064989192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00602226228846482</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01980333133554191</v>
+      </c>
+      <c r="C82">
+        <v>-0.1400732829800915</v>
+      </c>
+      <c r="D82">
+        <v>0.04211971215988795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008526167727711129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0100626432997855</v>
+      </c>
+      <c r="C83">
+        <v>-0.05670592956334802</v>
+      </c>
+      <c r="D83">
+        <v>0.05688124423236239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01312531552840608</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01172306762542435</v>
+      </c>
+      <c r="C84">
+        <v>-0.03745808256592091</v>
+      </c>
+      <c r="D84">
+        <v>-0.01250688963145333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01387892259071545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02825521585396102</v>
+      </c>
+      <c r="C85">
+        <v>-0.1242042068699613</v>
+      </c>
+      <c r="D85">
+        <v>0.04511285374715041</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001904770173099515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.006076138657082974</v>
+      </c>
+      <c r="C86">
+        <v>-0.05116887261818624</v>
+      </c>
+      <c r="D86">
+        <v>0.02005392400662386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004299451003107007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01021598009022845</v>
+      </c>
+      <c r="C87">
+        <v>-0.1289256526558613</v>
+      </c>
+      <c r="D87">
+        <v>0.07142519165041776</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01171255830503315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002796762819765987</v>
+      </c>
+      <c r="C88">
+        <v>-0.06653100180145824</v>
+      </c>
+      <c r="D88">
+        <v>0.01389087465258125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01418647975492861</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001312419572259341</v>
+      </c>
+      <c r="C89">
+        <v>-0.1472805032407664</v>
+      </c>
+      <c r="D89">
+        <v>-0.3434766906526908</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002281825089313924</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007058211622014796</v>
+      </c>
+      <c r="C90">
+        <v>-0.121460650395166</v>
+      </c>
+      <c r="D90">
+        <v>-0.321516479348035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006576469276433587</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01046730965445685</v>
+      </c>
+      <c r="C91">
+        <v>-0.1021332915851852</v>
+      </c>
+      <c r="D91">
+        <v>0.01937802359881532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007913665112090955</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009971455156850273</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358642921491134</v>
+      </c>
+      <c r="D92">
+        <v>-0.3274637878239155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003615034538084666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004863392459884754</v>
+      </c>
+      <c r="C93">
+        <v>-0.1047338371870758</v>
+      </c>
+      <c r="D93">
+        <v>-0.3049382343907241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003357988286256292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02255816935674656</v>
+      </c>
+      <c r="C94">
+        <v>-0.1473307271157186</v>
+      </c>
+      <c r="D94">
+        <v>0.05144953187315791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004432246995226616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01653662538959081</v>
+      </c>
+      <c r="C95">
+        <v>-0.1263482115032544</v>
+      </c>
+      <c r="D95">
+        <v>0.05853100563713572</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>2.983992411102121e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03605913849782006</v>
+      </c>
+      <c r="C97">
+        <v>-0.2125746396558153</v>
+      </c>
+      <c r="D97">
+        <v>-0.01352896216485174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003187695000320857</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03668398754030596</v>
+      </c>
+      <c r="C98">
+        <v>-0.2488626756491098</v>
+      </c>
+      <c r="D98">
+        <v>0.04909829888447487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847582116213792</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9821706235006245</v>
+      </c>
+      <c r="C99">
+        <v>0.1166721732176768</v>
+      </c>
+      <c r="D99">
+        <v>-0.02759305750776262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009285426890864428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003219029413622514</v>
+      </c>
+      <c r="C101">
+        <v>-0.04928385454948895</v>
+      </c>
+      <c r="D101">
+        <v>0.005989407135353455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
